--- a/RGV410046/data/faostat/itens_1_2.xlsx
+++ b/RGV410046/data/faostat/itens_1_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t xml:space="preserve">GUATEMALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QATAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUDAN</t>
   </si>
 </sst>
 </file>
@@ -2461,6 +2467,36 @@
         <v>0.116466964949589</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C104" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D104" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C105" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D105" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E105"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
